--- a/public/database/DATA.xlsx
+++ b/public/database/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Project\timetable-schedule\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A740BF-1930-4133-A7D3-748700779F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D625D488-D0A2-42D8-A439-B7559D75B60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="6" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="366">
   <si>
     <t>subjectCode</t>
   </si>
@@ -1114,6 +1114,36 @@
   </si>
   <si>
     <t>17:00</t>
+  </si>
+  <si>
+    <t>ONLINE 1</t>
+  </si>
+  <si>
+    <t>ONLINE 2</t>
+  </si>
+  <si>
+    <t>ONLINE 3</t>
+  </si>
+  <si>
+    <t>ONLINE 4</t>
+  </si>
+  <si>
+    <t>ONLINE 5</t>
+  </si>
+  <si>
+    <t>ONLINE 6</t>
+  </si>
+  <si>
+    <t>ONLINE 7</t>
+  </si>
+  <si>
+    <t>ONLINE 8</t>
+  </si>
+  <si>
+    <t>ONLINE 9</t>
+  </si>
+  <si>
+    <t>ONLINE 10</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1156,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1304,6 +1334,12 @@
       <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1682,7 +1718,7 @@
     <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1732,6 +1768,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - Accent1" xfId="24" builtinId="30" customBuiltin="1"/>
@@ -2220,8 +2259,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F307" sqref="F307"/>
+    <sheetView topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="K314" sqref="K314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14411,13 +14450,16 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8258DD1C-5C89-4BF3-859D-C9EDC0429FAF}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="11" t="s">
@@ -14659,7 +14701,208 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="1:6" ht="15">
+      <c r="A13" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="21">
+        <v>200</v>
+      </c>
+      <c r="C13" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15">
+      <c r="A14" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" s="21">
+        <v>200</v>
+      </c>
+      <c r="C14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="21">
+        <v>200</v>
+      </c>
+      <c r="C15" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15">
+      <c r="A16" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="21">
+        <v>200</v>
+      </c>
+      <c r="C16" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15">
+      <c r="A17" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="21">
+        <v>200</v>
+      </c>
+      <c r="C17" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D17" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15">
+      <c r="A18" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="21">
+        <v>200</v>
+      </c>
+      <c r="C18" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15">
+      <c r="A19" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="21">
+        <v>200</v>
+      </c>
+      <c r="C19" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D19" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15">
+      <c r="A20" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="21">
+        <v>200</v>
+      </c>
+      <c r="C20" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15">
+      <c r="A21" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="21">
+        <v>200</v>
+      </c>
+      <c r="C21" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D21" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15">
+      <c r="A22" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B22" s="21">
+        <v>200</v>
+      </c>
+      <c r="C22" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D22" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/database/DATA.xlsx
+++ b/public/database/DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Project\timetable-schedule\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D625D488-D0A2-42D8-A439-B7559D75B60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C1859E-2258-4801-B825-B515D2A2EFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="6" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
   </bookViews>
@@ -2259,8 +2259,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F312"/>
   <sheetViews>
-    <sheetView topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="K314" sqref="K314"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14453,7 +14453,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -14526,7 +14526,7 @@
         <v>245</v>
       </c>
       <c r="B4" s="12">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C4" s="20" t="b">
         <v>0</v>
@@ -14546,7 +14546,7 @@
         <v>246</v>
       </c>
       <c r="B5" s="12">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="C5" s="20" t="b">
         <v>0</v>

--- a/public/database/DATA.xlsx
+++ b/public/database/DATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\auto-scheduler\main-service\public\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Project\timetable-schedule\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BE8D50-C762-4599-A8F8-DE53B3C320AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0EF285-AAC6-43EF-A1E3-67CF82DC1BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="950" activeTab="6" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="12" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
   </bookViews>
   <sheets>
     <sheet name="studyProgram" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="374">
   <si>
     <t>subjectCode</t>
   </si>
@@ -1175,10 +1175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1693,10 +1693,10 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="30" borderId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -2282,8 +2282,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K319" sqref="K319"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2928,7 +2928,7 @@
         <v>60</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="15">
         <v>37</v>
@@ -2945,7 +2945,7 @@
         <v>61</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="15">
         <v>38</v>
@@ -8711,7 +8711,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E470"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C465" sqref="C465"/>
     </sheetView>
   </sheetViews>
@@ -13039,7 +13039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4E6E0B-9C30-4C9F-8A6D-9DAA24197B86}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -13333,8 +13333,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="E90" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73:J116"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13349,7 +13349,7 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13372,7 +13372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.6">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="2" t="s">
         <v>32</v>
       </c>
@@ -13394,11 +13394,8 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.6">
+    </row>
+    <row r="3" spans="1:7" ht="15.6">
       <c r="A3" s="2" t="s">
         <v>33</v>
       </c>
@@ -13420,11 +13417,8 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.6">
+    </row>
+    <row r="4" spans="1:7" ht="15.6">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -13446,11 +13440,8 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.6">
+    </row>
+    <row r="5" spans="1:7" ht="15.6">
       <c r="A5" s="2" t="s">
         <v>35</v>
       </c>
@@ -13472,11 +13463,8 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.6">
+    </row>
+    <row r="6" spans="1:7" ht="15.6">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -13498,11 +13486,8 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.6">
+    </row>
+    <row r="7" spans="1:7" ht="15.6">
       <c r="A7" s="2" t="s">
         <v>37</v>
       </c>
@@ -13524,11 +13509,8 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.6">
+    </row>
+    <row r="8" spans="1:7" ht="15.6">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
@@ -13550,11 +13532,8 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.6">
+    </row>
+    <row r="9" spans="1:7" ht="15.6">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -13576,11 +13555,8 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.6">
+    </row>
+    <row r="10" spans="1:7" ht="15.6">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -13602,11 +13578,8 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.6">
+    </row>
+    <row r="11" spans="1:7" ht="15.6">
       <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
@@ -13628,11 +13601,8 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.6">
+    </row>
+    <row r="12" spans="1:7" ht="15.6">
       <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
@@ -13654,11 +13624,8 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.6">
+    </row>
+    <row r="13" spans="1:7" ht="15.6">
       <c r="A13" s="2" t="s">
         <v>43</v>
       </c>
@@ -13680,11 +13647,8 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.6">
+    </row>
+    <row r="14" spans="1:7" ht="15.6">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -13706,11 +13670,8 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.6">
+    </row>
+    <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="2" t="s">
         <v>337</v>
       </c>
@@ -13732,11 +13693,8 @@
       <c r="G15">
         <v>2</v>
       </c>
-      <c r="I15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.6">
+    </row>
+    <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="2" t="s">
         <v>338</v>
       </c>
@@ -13758,11 +13716,8 @@
       <c r="G16">
         <v>2</v>
       </c>
-      <c r="I16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15.6">
+    </row>
+    <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="2" t="s">
         <v>339</v>
       </c>
@@ -13784,11 +13739,8 @@
       <c r="G17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.6">
+    </row>
+    <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -13810,11 +13762,8 @@
       <c r="G18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.6">
+    </row>
+    <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="2" t="s">
         <v>341</v>
       </c>
@@ -13836,11 +13785,8 @@
       <c r="G19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15.6">
+    </row>
+    <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="2" t="s">
         <v>342</v>
       </c>
@@ -13862,11 +13808,8 @@
       <c r="G20">
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.6">
+    </row>
+    <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="2" t="s">
         <v>343</v>
       </c>
@@ -13888,11 +13831,8 @@
       <c r="G21">
         <v>2</v>
       </c>
-      <c r="I21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.6">
+    </row>
+    <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="2" t="s">
         <v>344</v>
       </c>
@@ -13914,11 +13854,8 @@
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="I22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.6">
+    </row>
+    <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="2" t="s">
         <v>345</v>
       </c>
@@ -13940,11 +13877,8 @@
       <c r="G23">
         <v>2</v>
       </c>
-      <c r="I23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.6">
+    </row>
+    <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="2" t="s">
         <v>68</v>
       </c>
@@ -13966,11 +13900,8 @@
       <c r="G24">
         <v>3</v>
       </c>
-      <c r="I24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.6">
+    </row>
+    <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="2" t="s">
         <v>68</v>
       </c>
@@ -13992,11 +13923,8 @@
       <c r="G25">
         <v>3</v>
       </c>
-      <c r="I25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.6">
+    </row>
+    <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="2" t="s">
         <v>71</v>
       </c>
@@ -14018,11 +13946,8 @@
       <c r="G26">
         <v>3</v>
       </c>
-      <c r="I26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.6">
+    </row>
+    <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -14044,11 +13969,8 @@
       <c r="G27">
         <v>3</v>
       </c>
-      <c r="I27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.6">
+    </row>
+    <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -14070,11 +13992,8 @@
       <c r="G28">
         <v>3</v>
       </c>
-      <c r="I28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.6">
+    </row>
+    <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="2" t="s">
         <v>77</v>
       </c>
@@ -14096,11 +14015,8 @@
       <c r="G29">
         <v>3</v>
       </c>
-      <c r="I29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.6">
+    </row>
+    <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
@@ -14122,11 +14038,8 @@
       <c r="G30">
         <v>3</v>
       </c>
-      <c r="I30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.6">
+    </row>
+    <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="2" t="s">
         <v>81</v>
       </c>
@@ -14148,11 +14061,8 @@
       <c r="G31">
         <v>3</v>
       </c>
-      <c r="I31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.6">
+    </row>
+    <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="2" t="s">
         <v>83</v>
       </c>
@@ -14174,11 +14084,8 @@
       <c r="G32">
         <v>3</v>
       </c>
-      <c r="I32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.6">
+    </row>
+    <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="2" t="s">
         <v>86</v>
       </c>
@@ -14200,11 +14107,8 @@
       <c r="G33">
         <v>3</v>
       </c>
-      <c r="I33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15.6">
+    </row>
+    <row r="34" spans="1:7" ht="15.6">
       <c r="A34" s="2" t="s">
         <v>88</v>
       </c>
@@ -14226,11 +14130,8 @@
       <c r="G34">
         <v>3</v>
       </c>
-      <c r="I34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.6">
+    </row>
+    <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
@@ -14252,11 +14153,8 @@
       <c r="G35">
         <v>3</v>
       </c>
-      <c r="I35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.6">
+    </row>
+    <row r="36" spans="1:7" ht="15.6">
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
@@ -14278,11 +14176,8 @@
       <c r="G36">
         <v>4</v>
       </c>
-      <c r="I36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="15.6">
+    </row>
+    <row r="37" spans="1:7" ht="15.6">
       <c r="A37" s="2" t="s">
         <v>94</v>
       </c>
@@ -14304,11 +14199,8 @@
       <c r="G37">
         <v>4</v>
       </c>
-      <c r="I37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.6">
+    </row>
+    <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="2" t="s">
         <v>96</v>
       </c>
@@ -14330,11 +14222,8 @@
       <c r="G38">
         <v>4</v>
       </c>
-      <c r="I38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.6">
+    </row>
+    <row r="39" spans="1:7" ht="15.6">
       <c r="A39" s="2" t="s">
         <v>98</v>
       </c>
@@ -14356,11 +14245,8 @@
       <c r="G39">
         <v>4</v>
       </c>
-      <c r="I39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.6">
+    </row>
+    <row r="40" spans="1:7" ht="15.6">
       <c r="A40" s="2" t="s">
         <v>99</v>
       </c>
@@ -14382,11 +14268,8 @@
       <c r="G40">
         <v>4</v>
       </c>
-      <c r="I40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.6">
+    </row>
+    <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="2" t="s">
         <v>101</v>
       </c>
@@ -14408,11 +14291,8 @@
       <c r="G41">
         <v>4</v>
       </c>
-      <c r="I41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.6">
+    </row>
+    <row r="42" spans="1:7" ht="15.6">
       <c r="A42" s="2" t="s">
         <v>103</v>
       </c>
@@ -14434,11 +14314,8 @@
       <c r="G42">
         <v>4</v>
       </c>
-      <c r="I42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.6">
+    </row>
+    <row r="43" spans="1:7" ht="15.6">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -14460,11 +14337,8 @@
       <c r="G43">
         <v>4</v>
       </c>
-      <c r="I43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15.6">
+    </row>
+    <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="2" t="s">
         <v>107</v>
       </c>
@@ -14486,11 +14360,8 @@
       <c r="G44">
         <v>4</v>
       </c>
-      <c r="I44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.6">
+    </row>
+    <row r="45" spans="1:7" ht="15.6">
       <c r="A45" s="2" t="s">
         <v>109</v>
       </c>
@@ -14512,11 +14383,8 @@
       <c r="G45">
         <v>4</v>
       </c>
-      <c r="I45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.6">
+    </row>
+    <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="6" t="s">
         <v>111</v>
       </c>
@@ -14538,11 +14406,8 @@
       <c r="G46">
         <v>5</v>
       </c>
-      <c r="I46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.6">
+    </row>
+    <row r="47" spans="1:7" ht="15.6">
       <c r="A47" s="7" t="s">
         <v>113</v>
       </c>
@@ -14564,11 +14429,8 @@
       <c r="G47">
         <v>5</v>
       </c>
-      <c r="I47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.6">
+    </row>
+    <row r="48" spans="1:7" ht="15.6">
       <c r="A48" s="6" t="s">
         <v>115</v>
       </c>
@@ -14590,11 +14452,8 @@
       <c r="G48">
         <v>5</v>
       </c>
-      <c r="I48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.6">
+    </row>
+    <row r="49" spans="1:7" ht="15.6">
       <c r="A49" s="2" t="s">
         <v>117</v>
       </c>
@@ -14616,11 +14475,8 @@
       <c r="G49">
         <v>5</v>
       </c>
-      <c r="I49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.6">
+    </row>
+    <row r="50" spans="1:7" ht="15.6">
       <c r="A50" s="8" t="s">
         <v>119</v>
       </c>
@@ -14642,11 +14498,8 @@
       <c r="G50">
         <v>5</v>
       </c>
-      <c r="I50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.6">
+    </row>
+    <row r="51" spans="1:7" ht="15.6">
       <c r="A51" s="2" t="s">
         <v>121</v>
       </c>
@@ -14668,11 +14521,8 @@
       <c r="G51">
         <v>5</v>
       </c>
-      <c r="I51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.6">
+    </row>
+    <row r="52" spans="1:7" ht="15.6">
       <c r="A52" s="2" t="s">
         <v>123</v>
       </c>
@@ -14694,11 +14544,8 @@
       <c r="G52">
         <v>5</v>
       </c>
-      <c r="I52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.6">
+    </row>
+    <row r="53" spans="1:7" ht="15.6">
       <c r="A53" s="8" t="s">
         <v>125</v>
       </c>
@@ -14720,11 +14567,8 @@
       <c r="G53">
         <v>5</v>
       </c>
-      <c r="I53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.6">
+    </row>
+    <row r="54" spans="1:7" ht="15.6">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -14746,11 +14590,8 @@
       <c r="G54">
         <v>5</v>
       </c>
-      <c r="I54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.6">
+    </row>
+    <row r="55" spans="1:7" ht="15.6">
       <c r="A55" s="2" t="s">
         <v>129</v>
       </c>
@@ -14772,11 +14613,8 @@
       <c r="G55">
         <v>5</v>
       </c>
-      <c r="I55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.6">
+    </row>
+    <row r="56" spans="1:7" ht="15.6">
       <c r="A56" s="8" t="s">
         <v>131</v>
       </c>
@@ -14798,11 +14636,8 @@
       <c r="G56">
         <v>5</v>
       </c>
-      <c r="I56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.6">
+    </row>
+    <row r="57" spans="1:7" ht="15.6">
       <c r="A57" s="2" t="s">
         <v>133</v>
       </c>
@@ -14824,11 +14659,8 @@
       <c r="G57">
         <v>6</v>
       </c>
-      <c r="I57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.6">
+    </row>
+    <row r="58" spans="1:7" ht="15.6">
       <c r="A58" s="2" t="s">
         <v>135</v>
       </c>
@@ -14850,11 +14682,8 @@
       <c r="G58">
         <v>6</v>
       </c>
-      <c r="I58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.6">
+    </row>
+    <row r="59" spans="1:7" ht="15.6">
       <c r="A59" s="2" t="s">
         <v>137</v>
       </c>
@@ -14876,11 +14705,8 @@
       <c r="G59">
         <v>6</v>
       </c>
-      <c r="I59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.6">
+    </row>
+    <row r="60" spans="1:7" ht="15.6">
       <c r="A60" s="2" t="s">
         <v>139</v>
       </c>
@@ -14902,11 +14728,8 @@
       <c r="G60">
         <v>6</v>
       </c>
-      <c r="I60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15.6">
+    </row>
+    <row r="61" spans="1:7" ht="15.6">
       <c r="A61" s="2" t="s">
         <v>141</v>
       </c>
@@ -14928,11 +14751,8 @@
       <c r="G61">
         <v>6</v>
       </c>
-      <c r="I61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15.6">
+    </row>
+    <row r="62" spans="1:7" ht="15.6">
       <c r="A62" s="2" t="s">
         <v>143</v>
       </c>
@@ -14954,11 +14774,8 @@
       <c r="G62">
         <v>6</v>
       </c>
-      <c r="I62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.6">
+    </row>
+    <row r="63" spans="1:7" ht="15.6">
       <c r="A63" s="2" t="s">
         <v>145</v>
       </c>
@@ -14980,11 +14797,8 @@
       <c r="G63">
         <v>6</v>
       </c>
-      <c r="I63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.6">
+    </row>
+    <row r="64" spans="1:7" ht="15.6">
       <c r="A64" s="2" t="s">
         <v>147</v>
       </c>
@@ -15005,9 +14819,6 @@
       </c>
       <c r="G64">
         <v>6</v>
-      </c>
-      <c r="I64">
-        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.6">
@@ -15032,9 +14843,6 @@
       <c r="G65">
         <v>7</v>
       </c>
-      <c r="I65">
-        <v>64</v>
-      </c>
     </row>
     <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="6" t="s">
@@ -15058,9 +14866,6 @@
       <c r="G66">
         <v>7</v>
       </c>
-      <c r="I66">
-        <v>65</v>
-      </c>
     </row>
     <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="2" t="s">
@@ -15084,9 +14889,6 @@
       <c r="G67">
         <v>7</v>
       </c>
-      <c r="I67">
-        <v>66</v>
-      </c>
     </row>
     <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="2" t="s">
@@ -15110,9 +14912,6 @@
       <c r="G68">
         <v>7</v>
       </c>
-      <c r="I68">
-        <v>67</v>
-      </c>
     </row>
     <row r="69" spans="1:10" ht="15.6">
       <c r="A69" s="2" t="s">
@@ -15136,9 +14935,6 @@
       <c r="G69">
         <v>7</v>
       </c>
-      <c r="I69">
-        <v>68</v>
-      </c>
     </row>
     <row r="70" spans="1:10" ht="15.6">
       <c r="A70" s="2" t="s">
@@ -15162,9 +14958,6 @@
       <c r="G70">
         <v>7</v>
       </c>
-      <c r="I70">
-        <v>69</v>
-      </c>
     </row>
     <row r="71" spans="1:10" ht="15.6">
       <c r="A71" s="2" t="s">
@@ -15188,9 +14981,6 @@
       <c r="G71">
         <v>7</v>
       </c>
-      <c r="I71">
-        <v>70</v>
-      </c>
     </row>
     <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="2" t="s">
@@ -15214,9 +15004,6 @@
       <c r="G72">
         <v>7</v>
       </c>
-      <c r="I72">
-        <v>71</v>
-      </c>
     </row>
     <row r="73" spans="1:10" ht="15.6">
       <c r="A73" s="2" t="s">
@@ -15240,12 +15027,7 @@
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="I73">
-        <v>72</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="J73" s="9"/>
     </row>
     <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="2" t="s">
@@ -15269,12 +15051,7 @@
       <c r="G74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>73</v>
-      </c>
-      <c r="J74" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="J74" s="9"/>
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="2" t="s">
@@ -15298,12 +15075,7 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75">
-        <v>74</v>
-      </c>
-      <c r="J75" s="9" t="s">
-        <v>48</v>
-      </c>
+      <c r="J75" s="9"/>
     </row>
     <row r="76" spans="1:10" ht="15.6">
       <c r="A76" s="2" t="s">
@@ -15327,12 +15099,7 @@
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="I76">
-        <v>75</v>
-      </c>
-      <c r="J76" s="9" t="s">
-        <v>49</v>
-      </c>
+      <c r="J76" s="9"/>
     </row>
     <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="2" t="s">
@@ -15356,12 +15123,7 @@
       <c r="G77">
         <v>1</v>
       </c>
-      <c r="I77">
-        <v>76</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>171</v>
-      </c>
+      <c r="J77" s="10"/>
     </row>
     <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="2" t="s">
@@ -15385,12 +15147,7 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="I78">
-        <v>77</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>173</v>
-      </c>
+      <c r="J78" s="9"/>
     </row>
     <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="2" t="s">
@@ -15414,12 +15171,7 @@
       <c r="G79">
         <v>1</v>
       </c>
-      <c r="I79">
-        <v>78</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>175</v>
-      </c>
+      <c r="J79" s="9"/>
     </row>
     <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="2" t="s">
@@ -15443,12 +15195,7 @@
       <c r="G80">
         <v>1</v>
       </c>
-      <c r="I80">
-        <v>79</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>52</v>
-      </c>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:10" ht="15.6">
       <c r="A81" s="2" t="s">
@@ -15472,12 +15219,7 @@
       <c r="G81">
         <v>1</v>
       </c>
-      <c r="I81">
-        <v>80</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>53</v>
-      </c>
+      <c r="J81" s="10"/>
     </row>
     <row r="82" spans="1:10" ht="15.6">
       <c r="A82" s="2" t="s">
@@ -15501,12 +15243,7 @@
       <c r="G82">
         <v>1</v>
       </c>
-      <c r="I82">
-        <v>81</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>54</v>
-      </c>
+      <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10" ht="15.6">
       <c r="A83" s="2" t="s">
@@ -15530,12 +15267,7 @@
       <c r="G83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>82</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>55</v>
-      </c>
+      <c r="J83" s="10"/>
     </row>
     <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="2" t="s">
@@ -15559,12 +15291,7 @@
       <c r="G84">
         <v>1</v>
       </c>
-      <c r="I84">
-        <v>83</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>116</v>
-      </c>
+      <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10" ht="15.6">
       <c r="A85" s="2" t="s">
@@ -15588,12 +15315,7 @@
       <c r="G85">
         <v>2</v>
       </c>
-      <c r="I85">
-        <v>84</v>
-      </c>
-      <c r="J85" s="4" t="s">
-        <v>182</v>
-      </c>
+      <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" ht="15.6">
       <c r="A86" s="2" t="s">
@@ -15617,12 +15339,7 @@
       <c r="G86">
         <v>2</v>
       </c>
-      <c r="I86">
-        <v>85</v>
-      </c>
-      <c r="J86" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" ht="15.6">
       <c r="A87" s="2" t="s">
@@ -15646,12 +15363,7 @@
       <c r="G87">
         <v>2</v>
       </c>
-      <c r="I87">
-        <v>86</v>
-      </c>
-      <c r="J87" s="4" t="s">
-        <v>65</v>
-      </c>
+      <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" ht="15.6">
       <c r="A88" s="2" t="s">
@@ -15675,12 +15387,7 @@
       <c r="G88">
         <v>2</v>
       </c>
-      <c r="I88">
-        <v>87</v>
-      </c>
-      <c r="J88" s="4" t="s">
-        <v>186</v>
-      </c>
+      <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" ht="15.6">
       <c r="A89" s="2" t="s">
@@ -15704,12 +15411,7 @@
       <c r="G89">
         <v>2</v>
       </c>
-      <c r="I89">
-        <v>88</v>
-      </c>
-      <c r="J89" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="J89" s="5"/>
     </row>
     <row r="90" spans="1:10" ht="15.6">
       <c r="A90" s="2" t="s">
@@ -15733,12 +15435,7 @@
       <c r="G90">
         <v>2</v>
       </c>
-      <c r="I90">
-        <v>89</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" ht="15.6">
       <c r="A91" s="2" t="s">
@@ -15762,12 +15459,7 @@
       <c r="G91">
         <v>2</v>
       </c>
-      <c r="I91">
-        <v>90</v>
-      </c>
-      <c r="J91" s="4" t="s">
-        <v>190</v>
-      </c>
+      <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" ht="15.6">
       <c r="A92" s="2" t="s">
@@ -15791,12 +15483,7 @@
       <c r="G92">
         <v>2</v>
       </c>
-      <c r="I92">
-        <v>91</v>
-      </c>
-      <c r="J92" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="J92" s="5"/>
     </row>
     <row r="93" spans="1:10" ht="15.6">
       <c r="A93" s="2" t="s">
@@ -15820,12 +15507,7 @@
       <c r="G93">
         <v>2</v>
       </c>
-      <c r="I93">
-        <v>92</v>
-      </c>
-      <c r="J93" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="J93" s="5"/>
     </row>
     <row r="94" spans="1:10" ht="15.6">
       <c r="A94" s="2" t="s">
@@ -15849,12 +15531,7 @@
       <c r="G94">
         <v>3</v>
       </c>
-      <c r="I94">
-        <v>93</v>
-      </c>
-      <c r="J94" s="9" t="s">
-        <v>194</v>
-      </c>
+      <c r="J94" s="9"/>
     </row>
     <row r="95" spans="1:10" ht="15.6">
       <c r="A95" s="2" t="s">
@@ -15878,12 +15555,7 @@
       <c r="G95">
         <v>3</v>
       </c>
-      <c r="I95">
-        <v>94</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>196</v>
-      </c>
+      <c r="J95" s="9"/>
     </row>
     <row r="96" spans="1:10" ht="15.6">
       <c r="A96" s="2" t="s">
@@ -15907,12 +15579,7 @@
       <c r="G96">
         <v>3</v>
       </c>
-      <c r="I96">
-        <v>95</v>
-      </c>
-      <c r="J96" s="9" t="s">
-        <v>198</v>
-      </c>
+      <c r="J96" s="9"/>
     </row>
     <row r="97" spans="1:10" ht="15.6">
       <c r="A97" s="2" t="s">
@@ -15936,12 +15603,7 @@
       <c r="G97">
         <v>3</v>
       </c>
-      <c r="I97">
-        <v>96</v>
-      </c>
-      <c r="J97" s="9" t="s">
-        <v>70</v>
-      </c>
+      <c r="J97" s="9"/>
     </row>
     <row r="98" spans="1:10" ht="15.6">
       <c r="A98" s="2" t="s">
@@ -15965,12 +15627,7 @@
       <c r="G98">
         <v>3</v>
       </c>
-      <c r="I98">
-        <v>97</v>
-      </c>
-      <c r="J98" s="10" t="s">
-        <v>201</v>
-      </c>
+      <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" ht="15.6">
       <c r="A99" s="2" t="s">
@@ -15994,12 +15651,7 @@
       <c r="G99">
         <v>3</v>
       </c>
-      <c r="I99">
-        <v>98</v>
-      </c>
-      <c r="J99" s="9" t="s">
-        <v>78</v>
-      </c>
+      <c r="J99" s="9"/>
     </row>
     <row r="100" spans="1:10" ht="15.6">
       <c r="A100" s="2" t="s">
@@ -16023,12 +15675,7 @@
       <c r="G100">
         <v>3</v>
       </c>
-      <c r="I100">
-        <v>99</v>
-      </c>
-      <c r="J100" s="9" t="s">
-        <v>204</v>
-      </c>
+      <c r="J100" s="9"/>
     </row>
     <row r="101" spans="1:10" ht="15.6">
       <c r="A101" s="2" t="s">
@@ -16052,12 +15699,7 @@
       <c r="G101">
         <v>3</v>
       </c>
-      <c r="I101">
-        <v>100</v>
-      </c>
-      <c r="J101" s="10" t="s">
-        <v>206</v>
-      </c>
+      <c r="J101" s="10"/>
     </row>
     <row r="102" spans="1:10" ht="15.6">
       <c r="A102" s="2" t="s">
@@ -16081,12 +15723,7 @@
       <c r="G102">
         <v>3</v>
       </c>
-      <c r="I102">
-        <v>101</v>
-      </c>
-      <c r="J102" s="10" t="s">
-        <v>57</v>
-      </c>
+      <c r="J102" s="10"/>
     </row>
     <row r="103" spans="1:10" ht="15.6">
       <c r="A103" s="2" t="s">
@@ -16110,12 +15747,7 @@
       <c r="G103">
         <v>4</v>
       </c>
-      <c r="I103">
-        <v>102</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>140</v>
-      </c>
+      <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" ht="15.6">
       <c r="A104" s="2" t="s">
@@ -16139,12 +15771,7 @@
       <c r="G104">
         <v>4</v>
       </c>
-      <c r="I104">
-        <v>103</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>210</v>
-      </c>
+      <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" ht="15.6">
       <c r="A105" s="2" t="s">
@@ -16168,12 +15795,7 @@
       <c r="G105">
         <v>4</v>
       </c>
-      <c r="I105">
-        <v>104</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" ht="15.6">
       <c r="A106" s="2" t="s">
@@ -16197,12 +15819,7 @@
       <c r="G106">
         <v>4</v>
       </c>
-      <c r="I106">
-        <v>105</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>112</v>
-      </c>
+      <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" ht="15.6">
       <c r="A107" s="2" t="s">
@@ -16226,12 +15843,7 @@
       <c r="G107">
         <v>4</v>
       </c>
-      <c r="I107">
-        <v>106</v>
-      </c>
-      <c r="J107" s="5" t="s">
-        <v>214</v>
-      </c>
+      <c r="J107" s="5"/>
     </row>
     <row r="108" spans="1:10" ht="15.6">
       <c r="A108" s="2" t="s">
@@ -16255,12 +15867,7 @@
       <c r="G108">
         <v>4</v>
       </c>
-      <c r="I108">
-        <v>107</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" ht="15.6">
       <c r="A109" s="2" t="s">
@@ -16284,12 +15891,7 @@
       <c r="G109">
         <v>4</v>
       </c>
-      <c r="I109">
-        <v>108</v>
-      </c>
-      <c r="J109" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="J109" s="4"/>
     </row>
     <row r="110" spans="1:10" ht="15.6">
       <c r="A110" s="2" t="s">
@@ -16313,12 +15915,7 @@
       <c r="G110">
         <v>4</v>
       </c>
-      <c r="I110">
-        <v>109</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="J110" s="5"/>
     </row>
     <row r="111" spans="1:10" ht="15.6">
       <c r="A111" s="6" t="s">
@@ -16342,12 +15939,7 @@
       <c r="G111">
         <v>5</v>
       </c>
-      <c r="I111">
-        <v>110</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>222</v>
-      </c>
+      <c r="J111" s="9"/>
     </row>
     <row r="112" spans="1:10" ht="15.6">
       <c r="A112" s="7" t="s">
@@ -16371,12 +15963,7 @@
       <c r="G112">
         <v>5</v>
       </c>
-      <c r="I112">
-        <v>111</v>
-      </c>
-      <c r="J112" s="9" t="s">
-        <v>224</v>
-      </c>
+      <c r="J112" s="9"/>
     </row>
     <row r="113" spans="1:10" ht="15.6">
       <c r="A113" s="6" t="s">
@@ -16400,12 +15987,7 @@
       <c r="G113">
         <v>5</v>
       </c>
-      <c r="I113">
-        <v>112</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>126</v>
-      </c>
+      <c r="J113" s="9"/>
     </row>
     <row r="114" spans="1:10" ht="15.6">
       <c r="A114" s="2" t="s">
@@ -16429,12 +16011,7 @@
       <c r="G114">
         <v>5</v>
       </c>
-      <c r="I114">
-        <v>113</v>
-      </c>
-      <c r="J114" s="10" t="s">
-        <v>146</v>
-      </c>
+      <c r="J114" s="10"/>
     </row>
     <row r="115" spans="1:10" ht="15.6">
       <c r="A115" s="8" t="s">
@@ -16458,12 +16035,7 @@
       <c r="G115">
         <v>5</v>
       </c>
-      <c r="I115">
-        <v>114</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>228</v>
-      </c>
+      <c r="J115" s="9"/>
     </row>
     <row r="116" spans="1:10" ht="15.6">
       <c r="A116" s="2" t="s">
@@ -16487,12 +16059,7 @@
       <c r="G116">
         <v>5</v>
       </c>
-      <c r="I116">
-        <v>115</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>230</v>
-      </c>
+      <c r="J116" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18047,7 +17614,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>

--- a/public/database/DATA.xlsx
+++ b/public/database/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Project\timetable-schedule\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0EF285-AAC6-43EF-A1E3-67CF82DC1BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5191790-8E65-4F1B-A709-0E93615A0A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="12" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="8" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
   </bookViews>
   <sheets>
     <sheet name="studyProgram" sheetId="2" r:id="rId1"/>
@@ -2282,7 +2282,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K383"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -13039,7 +13039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4E6E0B-9C30-4C9F-8A6D-9DAA24197B86}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
@@ -18142,7 +18142,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18190,8 +18190,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/public/database/DATA.xlsx
+++ b/public/database/DATA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Project\timetable-schedule\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5191790-8E65-4F1B-A709-0E93615A0A38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F4AD7A-8661-4C76-8DC5-A882F2484E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="8" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="6" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
   </bookViews>
   <sheets>
     <sheet name="studyProgram" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="365">
   <si>
     <t>subjectCode</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Pemrograman Terstuktur</t>
   </si>
   <si>
-    <t>Pegantar Organisasi Komputer</t>
-  </si>
-  <si>
     <t>Pengantar Sistem Informasi</t>
   </si>
   <si>
@@ -1119,55 +1116,31 @@
     <t>ONLINE 1</t>
   </si>
   <si>
+    <t>Joni Putra, S.Pd.I, M.Pd.I.</t>
+  </si>
+  <si>
+    <t>Petrus Tripomo, SAg. LSL</t>
+  </si>
+  <si>
+    <t>Dr. NURLAKSANA EKO RUSMINTO</t>
+  </si>
+  <si>
+    <t>Dian Shafwati, S.Pd., M.Pd.</t>
+  </si>
+  <si>
+    <t>roomType</t>
+  </si>
+  <si>
+    <t>Kelas</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
     <t>ONLINE 2</t>
-  </si>
-  <si>
-    <t>ONLINE 3</t>
-  </si>
-  <si>
-    <t>ONLINE 4</t>
-  </si>
-  <si>
-    <t>ONLINE 5</t>
-  </si>
-  <si>
-    <t>ONLINE 6</t>
-  </si>
-  <si>
-    <t>ONLINE 7</t>
-  </si>
-  <si>
-    <t>ONLINE 8</t>
-  </si>
-  <si>
-    <t>ONLINE 9</t>
-  </si>
-  <si>
-    <t>ONLINE 10</t>
-  </si>
-  <si>
-    <t>Joni Putra, S.Pd.I, M.Pd.I.</t>
-  </si>
-  <si>
-    <t>Petrus Tripomo, SAg. LSL</t>
-  </si>
-  <si>
-    <t>Dr. NURLAKSANA EKO RUSMINTO</t>
-  </si>
-  <si>
-    <t>Dian Shafwati, S.Pd., M.Pd.</t>
-  </si>
-  <si>
-    <t>roomType</t>
-  </si>
-  <si>
-    <t>Kelas</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -2207,21 +2180,21 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" t="s">
         <v>323</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>324</v>
-      </c>
-      <c r="C1" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
       <c r="A2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>346</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>347</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2229,10 +2202,10 @@
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>349</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2240,10 +2213,10 @@
     </row>
     <row r="4" spans="1:3" ht="15">
       <c r="A4" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -2251,10 +2224,10 @@
     </row>
     <row r="5" spans="1:3" ht="15">
       <c r="A5" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>352</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>353</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -2262,10 +2235,10 @@
     </row>
     <row r="6" spans="1:3" ht="15">
       <c r="A6" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>354</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>355</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -2282,8 +2255,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:K383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B190" sqref="B190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2293,16 +2266,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" t="s">
         <v>255</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>256</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>257</v>
-      </c>
-      <c r="D1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6">
@@ -2922,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>60</v>
@@ -2939,7 +2912,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C39">
         <v>61</v>
@@ -8709,10 +8682,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C60DDE4F-E66C-43ED-A6B3-30BB81B0B990}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:E470"/>
+  <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C465" sqref="C465"/>
+    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8725,19 +8698,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>329</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9150,40 +9123,37 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47">
-        <v>23</v>
-      </c>
-      <c r="C47">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>21</v>
@@ -9205,26 +9175,29 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C52">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
-        <v>25</v>
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54">
         <v>25</v>
@@ -9232,23 +9205,23 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B55">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57">
         <v>31</v>
@@ -9256,18 +9229,15 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58">
-        <v>15</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59">
         <v>15</v>
@@ -9289,23 +9259,26 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B62">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B63">
         <v>16</v>
@@ -9313,15 +9286,15 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B64">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65">
         <v>7</v>
@@ -9337,34 +9310,34 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B67">
-        <v>17</v>
-      </c>
-      <c r="C67">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -9372,29 +9345,26 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71">
-        <v>13</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C72">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73">
         <v>18</v>
@@ -9416,15 +9386,18 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B75">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C75">
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B76">
         <v>26</v>
@@ -9432,23 +9405,23 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B77">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B78">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B79">
         <v>26</v>
@@ -9456,40 +9429,37 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B80">
-        <v>17</v>
-      </c>
-      <c r="C80">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B81">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C81">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83">
         <v>15</v>
@@ -9511,15 +9481,18 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B86">
         <v>7</v>
@@ -9535,51 +9508,48 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B88">
-        <v>20</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B91">
-        <v>13</v>
-      </c>
-      <c r="C91">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B92">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C92">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9595,15 +9565,18 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B94">
-        <v>31</v>
+        <v>18</v>
+      </c>
+      <c r="C94">
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B95">
         <v>31</v>
@@ -9611,18 +9584,15 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B96">
-        <v>21</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97">
         <v>21</v>
@@ -9644,34 +9614,37 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B99">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B100">
-        <v>17</v>
-      </c>
-      <c r="C100">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B101">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B102">
         <v>25</v>
@@ -9679,15 +9652,15 @@
     </row>
     <row r="103" spans="1:3">
       <c r="A103">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B103">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104">
         <v>26</v>
@@ -9695,15 +9668,15 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -9711,31 +9684,31 @@
     </row>
     <row r="107" spans="1:3">
       <c r="A107">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B107">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B108">
-        <v>3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B110">
         <v>22</v>
@@ -9751,7 +9724,7 @@
     </row>
     <row r="112" spans="1:3">
       <c r="A112">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112">
         <v>22</v>
@@ -9759,7 +9732,7 @@
     </row>
     <row r="113" spans="1:3">
       <c r="A113">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B113">
         <v>22</v>
@@ -9775,18 +9748,15 @@
     </row>
     <row r="115" spans="1:3">
       <c r="A115">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B115">
-        <v>5</v>
-      </c>
-      <c r="C115">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B116">
         <v>5</v>
@@ -9797,15 +9767,18 @@
     </row>
     <row r="117" spans="1:3">
       <c r="A117">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -9821,23 +9794,23 @@
     </row>
     <row r="120" spans="1:3">
       <c r="A120">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B120">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B121">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B122">
         <v>24</v>
@@ -9845,15 +9818,15 @@
     </row>
     <row r="123" spans="1:3">
       <c r="A123">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B123">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -9861,64 +9834,64 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B125">
-        <v>17</v>
-      </c>
-      <c r="C125">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B126">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C126">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B127">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C127">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="C128">
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B129">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B130">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B131">
         <v>16</v>
@@ -9926,15 +9899,15 @@
     </row>
     <row r="132" spans="1:3">
       <c r="A132">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B132">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B133">
         <v>25</v>
@@ -9942,15 +9915,15 @@
     </row>
     <row r="134" spans="1:3">
       <c r="A134">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B134">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B135">
         <v>31</v>
@@ -9958,18 +9931,15 @@
     </row>
     <row r="136" spans="1:3">
       <c r="A136">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B136">
-        <v>21</v>
-      </c>
-      <c r="C136">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B137">
         <v>21</v>
@@ -9991,24 +9961,24 @@
     </row>
     <row r="139" spans="1:3">
       <c r="A139">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B139">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B140">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C140">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -10024,18 +9994,18 @@
     </row>
     <row r="142" spans="1:3">
       <c r="A142">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B142">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C142">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B143">
         <v>15</v>
@@ -10057,15 +10027,18 @@
     </row>
     <row r="145" spans="1:3">
       <c r="A145">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B145">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B146">
         <v>7</v>
@@ -10081,26 +10054,26 @@
     </row>
     <row r="148" spans="1:3">
       <c r="A148">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B148">
-        <v>20</v>
-      </c>
-      <c r="C148">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B149">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="C149">
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B150">
         <v>26</v>
@@ -10108,15 +10081,15 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>26</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B152">
         <v>10</v>
@@ -10132,31 +10105,31 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B154">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B155">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B156">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B157">
         <v>12</v>
@@ -10172,7 +10145,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B159">
         <v>12</v>
@@ -10180,7 +10153,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B160">
         <v>12</v>
@@ -10196,7 +10169,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B162">
         <v>12</v>
@@ -10204,7 +10177,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B163">
         <v>12</v>
@@ -10212,7 +10185,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B164">
         <v>12</v>
@@ -10220,7 +10193,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B165">
         <v>12</v>
@@ -10228,15 +10201,15 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B166">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B167">
         <v>9</v>
@@ -10244,23 +10217,23 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B169">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B170">
         <v>13</v>
@@ -10268,26 +10241,26 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B171">
-        <v>17</v>
-      </c>
-      <c r="C171">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B172">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="C172">
+        <v>22</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B173">
         <v>14</v>
@@ -10303,7 +10276,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B175">
         <v>14</v>
@@ -10311,7 +10284,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B176">
         <v>14</v>
@@ -10327,15 +10300,15 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B178">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B179">
         <v>20</v>
@@ -10351,7 +10324,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B181">
         <v>20</v>
@@ -10359,7 +10332,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B182">
         <v>20</v>
@@ -10375,18 +10348,15 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B184">
-        <v>18</v>
-      </c>
-      <c r="C184">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B185">
         <v>18</v>
@@ -10408,7 +10378,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B187">
         <v>18</v>
@@ -10419,7 +10389,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B188">
         <v>18</v>
@@ -10441,18 +10411,18 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B190">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C190">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B191">
         <v>13</v>
@@ -10463,15 +10433,18 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B192">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="C192">
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B193">
         <v>29</v>
@@ -10479,15 +10452,15 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B194">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B195">
         <v>28</v>
@@ -10495,15 +10468,15 @@
     </row>
     <row r="196" spans="1:2">
       <c r="A196">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B196">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B197">
         <v>30</v>
@@ -10511,15 +10484,15 @@
     </row>
     <row r="198" spans="1:2">
       <c r="A198">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B198">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B199">
         <v>27</v>
@@ -10527,15 +10500,15 @@
     </row>
     <row r="200" spans="1:2">
       <c r="A200">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B200">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B201">
         <v>11</v>
@@ -10551,7 +10524,7 @@
     </row>
     <row r="203" spans="1:2">
       <c r="A203">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B203">
         <v>11</v>
@@ -10559,7 +10532,7 @@
     </row>
     <row r="204" spans="1:2">
       <c r="A204">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B204">
         <v>11</v>
@@ -10575,15 +10548,15 @@
     </row>
     <row r="206" spans="1:2">
       <c r="A206">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B206">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B207">
         <v>6</v>
@@ -10591,15 +10564,15 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B208">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B209">
         <v>14</v>
@@ -10615,15 +10588,15 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B211">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B212">
         <v>4</v>
@@ -10631,7 +10604,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B213">
         <v>4</v>
@@ -10639,7 +10612,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B214">
         <v>4</v>
@@ -10647,18 +10620,15 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B215">
-        <v>15</v>
-      </c>
-      <c r="C215">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B216">
         <v>15</v>
@@ -10669,7 +10639,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B217">
         <v>15</v>
@@ -10680,7 +10650,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B218">
         <v>15</v>
@@ -10691,7 +10661,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B219">
         <v>15</v>
@@ -10702,7 +10672,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B220">
         <v>15</v>
@@ -10713,7 +10683,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B221">
         <v>15</v>
@@ -10724,7 +10694,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B222">
         <v>15</v>
@@ -10735,15 +10705,18 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B223">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B224">
         <v>12</v>
@@ -10759,7 +10732,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B226">
         <v>12</v>
@@ -10767,7 +10740,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B227">
         <v>12</v>
@@ -10783,15 +10756,15 @@
     </row>
     <row r="229" spans="1:3">
       <c r="A229">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B229">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B230">
         <v>19</v>
@@ -10799,15 +10772,15 @@
     </row>
     <row r="231" spans="1:3">
       <c r="A231">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B231">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B232">
         <v>10</v>
@@ -10815,18 +10788,15 @@
     </row>
     <row r="233" spans="1:3">
       <c r="A233">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B233">
-        <v>17</v>
-      </c>
-      <c r="C233">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B234">
         <v>17</v>
@@ -10848,7 +10818,7 @@
     </row>
     <row r="236" spans="1:3">
       <c r="A236">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B236">
         <v>17</v>
@@ -10859,7 +10829,7 @@
     </row>
     <row r="237" spans="1:3">
       <c r="A237">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B237">
         <v>17</v>
@@ -10881,15 +10851,18 @@
     </row>
     <row r="239" spans="1:3">
       <c r="A239">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B239">
-        <v>3</v>
+        <v>17</v>
+      </c>
+      <c r="C239">
+        <v>21</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B240">
         <v>3</v>
@@ -10897,18 +10870,15 @@
     </row>
     <row r="241" spans="1:3">
       <c r="A241">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B241">
-        <v>20</v>
-      </c>
-      <c r="C241">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B242">
         <v>20</v>
@@ -10930,7 +10900,7 @@
     </row>
     <row r="244" spans="1:3">
       <c r="A244">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B244">
         <v>20</v>
@@ -10941,7 +10911,7 @@
     </row>
     <row r="245" spans="1:3">
       <c r="A245">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B245">
         <v>20</v>
@@ -10963,7 +10933,7 @@
     </row>
     <row r="247" spans="1:3">
       <c r="A247">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B247">
         <v>20</v>
@@ -10974,7 +10944,7 @@
     </row>
     <row r="248" spans="1:3">
       <c r="A248">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B248">
         <v>20</v>
@@ -10996,7 +10966,7 @@
     </row>
     <row r="250" spans="1:3">
       <c r="A250">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B250">
         <v>20</v>
@@ -11007,7 +10977,7 @@
     </row>
     <row r="251" spans="1:3">
       <c r="A251">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B251">
         <v>20</v>
@@ -11029,18 +10999,18 @@
     </row>
     <row r="253" spans="1:3">
       <c r="A253">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B253">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C253">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B254">
         <v>2</v>
@@ -11051,15 +11021,18 @@
     </row>
     <row r="255" spans="1:3">
       <c r="A255">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B255">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B256">
         <v>3</v>
@@ -11067,7 +11040,7 @@
     </row>
     <row r="257" spans="1:3">
       <c r="A257">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B257">
         <v>3</v>
@@ -11075,7 +11048,7 @@
     </row>
     <row r="258" spans="1:3">
       <c r="A258">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B258">
         <v>3</v>
@@ -11083,18 +11056,15 @@
     </row>
     <row r="259" spans="1:3">
       <c r="A259">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B259">
-        <v>17</v>
-      </c>
-      <c r="C259">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B260">
         <v>17</v>
@@ -11105,7 +11075,7 @@
     </row>
     <row r="261" spans="1:3">
       <c r="A261">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B261">
         <v>17</v>
@@ -11116,7 +11086,7 @@
     </row>
     <row r="262" spans="1:3">
       <c r="A262">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B262">
         <v>17</v>
@@ -11127,7 +11097,7 @@
     </row>
     <row r="263" spans="1:3">
       <c r="A263">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B263">
         <v>17</v>
@@ -11138,7 +11108,7 @@
     </row>
     <row r="264" spans="1:3">
       <c r="A264">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B264">
         <v>17</v>
@@ -11149,7 +11119,7 @@
     </row>
     <row r="265" spans="1:3">
       <c r="A265">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B265">
         <v>17</v>
@@ -11160,7 +11130,7 @@
     </row>
     <row r="266" spans="1:3">
       <c r="A266">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B266">
         <v>17</v>
@@ -11171,18 +11141,18 @@
     </row>
     <row r="267" spans="1:3">
       <c r="A267">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B267">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C267">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B268">
         <v>19</v>
@@ -11193,18 +11163,18 @@
     </row>
     <row r="269" spans="1:3">
       <c r="A269">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B269">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C269">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B270">
         <v>20</v>
@@ -11226,7 +11196,7 @@
     </row>
     <row r="272" spans="1:3">
       <c r="A272">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B272">
         <v>20</v>
@@ -11237,7 +11207,7 @@
     </row>
     <row r="273" spans="1:3">
       <c r="A273">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B273">
         <v>20</v>
@@ -11259,7 +11229,7 @@
     </row>
     <row r="275" spans="1:3">
       <c r="A275">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B275">
         <v>20</v>
@@ -11270,7 +11240,7 @@
     </row>
     <row r="276" spans="1:3">
       <c r="A276">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B276">
         <v>20</v>
@@ -11292,7 +11262,7 @@
     </row>
     <row r="278" spans="1:3">
       <c r="A278">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B278">
         <v>20</v>
@@ -11303,7 +11273,7 @@
     </row>
     <row r="279" spans="1:3">
       <c r="A279">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B279">
         <v>20</v>
@@ -11325,18 +11295,18 @@
     </row>
     <row r="281" spans="1:3">
       <c r="A281">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B281">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C281">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B282">
         <v>16</v>
@@ -11358,7 +11328,7 @@
     </row>
     <row r="284" spans="1:3">
       <c r="A284">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B284">
         <v>16</v>
@@ -11369,7 +11339,7 @@
     </row>
     <row r="285" spans="1:3">
       <c r="A285">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B285">
         <v>16</v>
@@ -11391,15 +11361,18 @@
     </row>
     <row r="287" spans="1:3">
       <c r="A287">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B287">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="C287">
+        <v>8</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B288">
         <v>4</v>
@@ -11415,7 +11388,7 @@
     </row>
     <row r="290" spans="1:3">
       <c r="A290">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B290">
         <v>4</v>
@@ -11423,7 +11396,7 @@
     </row>
     <row r="291" spans="1:3">
       <c r="A291">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B291">
         <v>4</v>
@@ -11439,7 +11412,7 @@
     </row>
     <row r="293" spans="1:3">
       <c r="A293">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B293">
         <v>4</v>
@@ -11447,7 +11420,7 @@
     </row>
     <row r="294" spans="1:3">
       <c r="A294">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B294">
         <v>4</v>
@@ -11463,7 +11436,7 @@
     </row>
     <row r="296" spans="1:3">
       <c r="A296">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B296">
         <v>4</v>
@@ -11471,7 +11444,7 @@
     </row>
     <row r="297" spans="1:3">
       <c r="A297">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B297">
         <v>4</v>
@@ -11487,18 +11460,15 @@
     </row>
     <row r="299" spans="1:3">
       <c r="A299">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B299">
-        <v>22</v>
-      </c>
-      <c r="C299">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B300">
         <v>22</v>
@@ -11520,7 +11490,7 @@
     </row>
     <row r="302" spans="1:3">
       <c r="A302">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B302">
         <v>22</v>
@@ -11531,7 +11501,7 @@
     </row>
     <row r="303" spans="1:3">
       <c r="A303">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B303">
         <v>22</v>
@@ -11553,7 +11523,7 @@
     </row>
     <row r="305" spans="1:3">
       <c r="A305">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B305">
         <v>22</v>
@@ -11564,7 +11534,7 @@
     </row>
     <row r="306" spans="1:3">
       <c r="A306">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B306">
         <v>22</v>
@@ -11586,7 +11556,7 @@
     </row>
     <row r="308" spans="1:3">
       <c r="A308">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B308">
         <v>22</v>
@@ -11597,7 +11567,7 @@
     </row>
     <row r="309" spans="1:3">
       <c r="A309">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B309">
         <v>22</v>
@@ -11619,15 +11589,18 @@
     </row>
     <row r="311" spans="1:3">
       <c r="A311">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B311">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C311">
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -11643,7 +11616,7 @@
     </row>
     <row r="314" spans="1:3">
       <c r="A314">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -11651,7 +11624,7 @@
     </row>
     <row r="315" spans="1:3">
       <c r="A315">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -11667,18 +11640,15 @@
     </row>
     <row r="317" spans="1:3">
       <c r="A317">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B317">
-        <v>32</v>
-      </c>
-      <c r="C317">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B318">
         <v>32</v>
@@ -11689,15 +11659,18 @@
     </row>
     <row r="319" spans="1:3">
       <c r="A319">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B319">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="C319">
+        <v>33</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B320">
         <v>34</v>
@@ -11705,15 +11678,15 @@
     </row>
     <row r="321" spans="1:2">
       <c r="A321">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B321">
-        <v>9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B322">
         <v>9</v>
@@ -11721,7 +11694,7 @@
     </row>
     <row r="323" spans="1:2">
       <c r="A323">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B323">
         <v>9</v>
@@ -11729,7 +11702,7 @@
     </row>
     <row r="324" spans="1:2">
       <c r="A324">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B324">
         <v>9</v>
@@ -11737,15 +11710,15 @@
     </row>
     <row r="325" spans="1:2">
       <c r="A325">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B325">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B326">
         <v>14</v>
@@ -11753,7 +11726,7 @@
     </row>
     <row r="327" spans="1:2">
       <c r="A327">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B327">
         <v>14</v>
@@ -11761,7 +11734,7 @@
     </row>
     <row r="328" spans="1:2">
       <c r="A328">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B328">
         <v>14</v>
@@ -11769,47 +11742,47 @@
     </row>
     <row r="329" spans="1:2">
       <c r="A329">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B329">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B330">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B331">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B332">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B333">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B334">
         <v>16</v>
@@ -11817,7 +11790,7 @@
     </row>
     <row r="335" spans="1:2">
       <c r="A335">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B335">
         <v>16</v>
@@ -11825,7 +11798,7 @@
     </row>
     <row r="336" spans="1:2">
       <c r="A336">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B336">
         <v>16</v>
@@ -11833,7 +11806,7 @@
     </row>
     <row r="337" spans="1:3">
       <c r="A337">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B337">
         <v>16</v>
@@ -11841,7 +11814,7 @@
     </row>
     <row r="338" spans="1:3">
       <c r="A338">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B338">
         <v>16</v>
@@ -11849,7 +11822,7 @@
     </row>
     <row r="339" spans="1:3">
       <c r="A339">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B339">
         <v>16</v>
@@ -11857,7 +11830,7 @@
     </row>
     <row r="340" spans="1:3">
       <c r="A340">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B340">
         <v>16</v>
@@ -11865,18 +11838,15 @@
     </row>
     <row r="341" spans="1:3">
       <c r="A341">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B341">
-        <v>18</v>
-      </c>
-      <c r="C341">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B342">
         <v>18</v>
@@ -11898,7 +11868,7 @@
     </row>
     <row r="344" spans="1:3">
       <c r="A344">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B344">
         <v>18</v>
@@ -11909,7 +11879,7 @@
     </row>
     <row r="345" spans="1:3">
       <c r="A345">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B345">
         <v>18</v>
@@ -11931,7 +11901,7 @@
     </row>
     <row r="347" spans="1:3">
       <c r="A347">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B347">
         <v>18</v>
@@ -11942,7 +11912,7 @@
     </row>
     <row r="348" spans="1:3">
       <c r="A348">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B348">
         <v>18</v>
@@ -11964,7 +11934,7 @@
     </row>
     <row r="350" spans="1:3">
       <c r="A350">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B350">
         <v>18</v>
@@ -11975,7 +11945,7 @@
     </row>
     <row r="351" spans="1:3">
       <c r="A351">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B351">
         <v>18</v>
@@ -11997,15 +11967,18 @@
     </row>
     <row r="353" spans="1:3">
       <c r="A353">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B353">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="C353">
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B354">
         <v>11</v>
@@ -12021,7 +11994,7 @@
     </row>
     <row r="356" spans="1:3">
       <c r="A356">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B356">
         <v>11</v>
@@ -12029,7 +12002,7 @@
     </row>
     <row r="357" spans="1:3">
       <c r="A357">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B357">
         <v>11</v>
@@ -12045,7 +12018,7 @@
     </row>
     <row r="359" spans="1:3">
       <c r="A359">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B359">
         <v>11</v>
@@ -12053,7 +12026,7 @@
     </row>
     <row r="360" spans="1:3">
       <c r="A360">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B360">
         <v>11</v>
@@ -12069,7 +12042,7 @@
     </row>
     <row r="362" spans="1:3">
       <c r="A362">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B362">
         <v>11</v>
@@ -12077,7 +12050,7 @@
     </row>
     <row r="363" spans="1:3">
       <c r="A363">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B363">
         <v>11</v>
@@ -12093,18 +12066,15 @@
     </row>
     <row r="365" spans="1:3">
       <c r="A365">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B365">
-        <v>18</v>
-      </c>
-      <c r="C365">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B366">
         <v>18</v>
@@ -12126,7 +12096,7 @@
     </row>
     <row r="368" spans="1:3">
       <c r="A368">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B368">
         <v>18</v>
@@ -12137,7 +12107,7 @@
     </row>
     <row r="369" spans="1:3">
       <c r="A369">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B369">
         <v>18</v>
@@ -12159,7 +12129,7 @@
     </row>
     <row r="371" spans="1:3">
       <c r="A371">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B371">
         <v>18</v>
@@ -12170,7 +12140,7 @@
     </row>
     <row r="372" spans="1:3">
       <c r="A372">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B372">
         <v>18</v>
@@ -12192,7 +12162,7 @@
     </row>
     <row r="374" spans="1:3">
       <c r="A374">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B374">
         <v>18</v>
@@ -12203,7 +12173,7 @@
     </row>
     <row r="375" spans="1:3">
       <c r="A375">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B375">
         <v>18</v>
@@ -12225,26 +12195,26 @@
     </row>
     <row r="377" spans="1:3">
       <c r="A377">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B377">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C377">
+        <v>21</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B378">
-        <v>8</v>
-      </c>
-      <c r="C378">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B379">
         <v>8</v>
@@ -12255,7 +12225,7 @@
     </row>
     <row r="380" spans="1:3">
       <c r="A380">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B380">
         <v>8</v>
@@ -12266,7 +12236,7 @@
     </row>
     <row r="381" spans="1:3">
       <c r="A381">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B381">
         <v>8</v>
@@ -12277,26 +12247,29 @@
     </row>
     <row r="382" spans="1:3">
       <c r="A382">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B382">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C382">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B383">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="C383">
+        <v>22</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B384">
         <v>15</v>
@@ -12312,15 +12285,15 @@
     </row>
     <row r="386" spans="1:3">
       <c r="A386">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B386">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B387">
         <v>14</v>
@@ -12336,18 +12309,15 @@
     </row>
     <row r="389" spans="1:3">
       <c r="A389">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B389">
-        <v>17</v>
-      </c>
-      <c r="C389">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B390">
         <v>17</v>
@@ -12358,18 +12328,18 @@
     </row>
     <row r="391" spans="1:3">
       <c r="A391">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B391">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C391">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B392">
         <v>21</v>
@@ -12380,31 +12350,34 @@
     </row>
     <row r="393" spans="1:3">
       <c r="A393">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B393">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C393">
+        <v>17</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B394">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B395">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B396">
         <v>19</v>
@@ -12412,15 +12385,15 @@
     </row>
     <row r="397" spans="1:3">
       <c r="A397">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B397">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B398">
         <v>35</v>
@@ -12428,18 +12401,15 @@
     </row>
     <row r="399" spans="1:3">
       <c r="A399">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B399">
-        <v>36</v>
-      </c>
-      <c r="C399">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B400">
         <v>36</v>
@@ -12448,63 +12418,66 @@
         <v>30</v>
       </c>
     </row>
-    <row r="401" spans="1:2">
+    <row r="401" spans="1:3">
       <c r="A401">
+        <v>327</v>
+      </c>
+      <c r="B401">
+        <v>36</v>
+      </c>
+      <c r="C401">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
         <v>328</v>
-      </c>
-      <c r="B401">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="402" spans="1:2">
-      <c r="A402">
-        <v>329</v>
       </c>
       <c r="B402">
         <v>27</v>
       </c>
     </row>
-    <row r="403" spans="1:2">
+    <row r="403" spans="1:3">
       <c r="A403">
+        <v>329</v>
+      </c>
+      <c r="B403">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
         <v>330</v>
-      </c>
-      <c r="B403">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="404" spans="1:2">
-      <c r="A404">
-        <v>331</v>
       </c>
       <c r="B404">
         <v>28</v>
       </c>
     </row>
-    <row r="405" spans="1:2">
+    <row r="405" spans="1:3">
       <c r="A405">
+        <v>331</v>
+      </c>
+      <c r="B405">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
         <v>332</v>
       </c>
-      <c r="B405">
+      <c r="B406">
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:2">
-      <c r="A406">
+    <row r="407" spans="1:3">
+      <c r="A407">
         <v>333</v>
-      </c>
-      <c r="B406">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="407" spans="1:2">
-      <c r="A407">
-        <v>334</v>
       </c>
       <c r="B407">
         <v>15</v>
       </c>
     </row>
-    <row r="408" spans="1:2">
+    <row r="408" spans="1:3">
       <c r="A408">
         <v>334</v>
       </c>
@@ -12512,23 +12485,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="409" spans="1:2">
+    <row r="409" spans="1:3">
       <c r="A409">
+        <v>334</v>
+      </c>
+      <c r="B409">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
         <v>335</v>
-      </c>
-      <c r="B409">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="410" spans="1:2">
-      <c r="A410">
-        <v>336</v>
       </c>
       <c r="B410">
         <v>14</v>
       </c>
     </row>
-    <row r="411" spans="1:2">
+    <row r="411" spans="1:3">
       <c r="A411">
         <v>336</v>
       </c>
@@ -12536,23 +12509,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="412" spans="1:2">
+    <row r="412" spans="1:3">
       <c r="A412">
+        <v>336</v>
+      </c>
+      <c r="B412">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
         <v>337</v>
-      </c>
-      <c r="B412">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="413" spans="1:2">
-      <c r="A413">
-        <v>338</v>
       </c>
       <c r="B413">
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:2">
+    <row r="414" spans="1:3">
       <c r="A414">
         <v>338</v>
       </c>
@@ -12560,17 +12533,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:2">
+    <row r="415" spans="1:3">
       <c r="A415">
+        <v>338</v>
+      </c>
+      <c r="B415">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
         <v>339</v>
-      </c>
-      <c r="B415">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="416" spans="1:2">
-      <c r="A416">
-        <v>340</v>
       </c>
       <c r="B416">
         <v>19</v>
@@ -12578,18 +12551,15 @@
     </row>
     <row r="417" spans="1:3">
       <c r="A417">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B417">
-        <v>18</v>
-      </c>
-      <c r="C417">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B418">
         <v>18</v>
@@ -12600,42 +12570,45 @@
     </row>
     <row r="419" spans="1:3">
       <c r="A419">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B419">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="C419">
+        <v>7</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B420">
-        <v>37</v>
-      </c>
-      <c r="C420">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B421">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="C421">
+        <v>33</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B422">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B423">
         <v>13</v>
@@ -12651,31 +12624,31 @@
     </row>
     <row r="425" spans="1:3">
       <c r="A425">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B425">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B426">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B427">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B428">
         <v>15</v>
@@ -12691,15 +12664,15 @@
     </row>
     <row r="430" spans="1:3">
       <c r="A430">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B430">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B431">
         <v>13</v>
@@ -12715,15 +12688,15 @@
     </row>
     <row r="433" spans="1:3">
       <c r="A433">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B433">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B434">
         <v>4</v>
@@ -12739,18 +12712,15 @@
     </row>
     <row r="436" spans="1:3">
       <c r="A436">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B436">
-        <v>18</v>
-      </c>
-      <c r="C436">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B437">
         <v>18</v>
@@ -12772,31 +12742,34 @@
     </row>
     <row r="439" spans="1:3">
       <c r="A439">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B439">
-        <v>38</v>
+        <v>18</v>
+      </c>
+      <c r="C439">
+        <v>10</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B440">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B441">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B442">
         <v>7</v>
@@ -12812,23 +12785,23 @@
     </row>
     <row r="444" spans="1:3">
       <c r="A444">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B444">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -12844,15 +12817,15 @@
     </row>
     <row r="448" spans="1:3">
       <c r="A448">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B448">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B449">
         <v>3</v>
@@ -12860,15 +12833,15 @@
     </row>
     <row r="450" spans="1:2">
       <c r="A450">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B450">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:2">
       <c r="A451">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B451">
         <v>2</v>
@@ -12876,15 +12849,15 @@
     </row>
     <row r="452" spans="1:2">
       <c r="A452">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B452">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B453">
         <v>22</v>
@@ -12900,15 +12873,15 @@
     </row>
     <row r="455" spans="1:2">
       <c r="A455">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B455">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B456">
         <v>13</v>
@@ -12924,15 +12897,15 @@
     </row>
     <row r="458" spans="1:2">
       <c r="A458">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B458">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="459" spans="1:2">
       <c r="A459">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B459">
         <v>21</v>
@@ -12948,23 +12921,23 @@
     </row>
     <row r="461" spans="1:2">
       <c r="A461">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B461">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="462" spans="1:2">
       <c r="A462">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B462">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B463">
         <v>20</v>
@@ -12980,15 +12953,15 @@
     </row>
     <row r="465" spans="1:3">
       <c r="A465">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B465">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B466">
         <v>21</v>
@@ -13004,28 +12977,36 @@
     </row>
     <row r="468" spans="1:3">
       <c r="A468">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B468">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B469">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470">
+        <v>381</v>
+      </c>
+      <c r="B470">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
         <v>382</v>
       </c>
-      <c r="B470">
+      <c r="B471">
         <v>15</v>
       </c>
-      <c r="C470">
+      <c r="C471">
         <v>16</v>
       </c>
     </row>
@@ -13047,32 +13028,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -13333,14 +13314,14 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="3" width="10.21875" customWidth="1"/>
     <col min="4" max="4" width="14.21875" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" customWidth="1"/>
@@ -13673,7 +13654,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.6">
       <c r="A15" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>59</v>
@@ -13696,7 +13677,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.6">
       <c r="A16" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>60</v>
@@ -13719,10 +13700,10 @@
     </row>
     <row r="17" spans="1:7" ht="15.6">
       <c r="A17" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3">
         <v>2</v>
@@ -13742,10 +13723,10 @@
     </row>
     <row r="18" spans="1:7" ht="15.6">
       <c r="A18" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -13765,10 +13746,10 @@
     </row>
     <row r="19" spans="1:7" ht="15.6">
       <c r="A19" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="3">
         <v>3</v>
@@ -13788,10 +13769,10 @@
     </row>
     <row r="20" spans="1:7" ht="15.6">
       <c r="A20" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
@@ -13811,10 +13792,10 @@
     </row>
     <row r="21" spans="1:7" ht="15.6">
       <c r="A21" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
@@ -13834,10 +13815,10 @@
     </row>
     <row r="22" spans="1:7" ht="15.6">
       <c r="A22" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
@@ -13857,10 +13838,10 @@
     </row>
     <row r="23" spans="1:7" ht="15.6">
       <c r="A23" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C23" s="3">
         <v>2</v>
@@ -13880,10 +13861,10 @@
     </row>
     <row r="24" spans="1:7" ht="15.6">
       <c r="A24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>69</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -13903,10 +13884,10 @@
     </row>
     <row r="25" spans="1:7" ht="15.6">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -13926,10 +13907,10 @@
     </row>
     <row r="26" spans="1:7" ht="15.6">
       <c r="A26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="C26" s="3">
         <v>2</v>
@@ -13949,10 +13930,10 @@
     </row>
     <row r="27" spans="1:7" ht="15.6">
       <c r="A27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
@@ -13972,10 +13953,10 @@
     </row>
     <row r="28" spans="1:7" ht="15.6">
       <c r="A28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="C28" s="3">
         <v>3</v>
@@ -13995,10 +13976,10 @@
     </row>
     <row r="29" spans="1:7" ht="15.6">
       <c r="A29" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="C29" s="3">
         <v>3</v>
@@ -14018,10 +13999,10 @@
     </row>
     <row r="30" spans="1:7" ht="15.6">
       <c r="A30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C30" s="3">
         <v>2</v>
@@ -14041,10 +14022,10 @@
     </row>
     <row r="31" spans="1:7" ht="15.6">
       <c r="A31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C31" s="3">
         <v>2</v>
@@ -14064,16 +14045,16 @@
     </row>
     <row r="32" spans="1:7" ht="15.6">
       <c r="A32" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="C32" s="3">
+        <v>3</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -14087,16 +14068,16 @@
     </row>
     <row r="33" spans="1:7" ht="15.6">
       <c r="A33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="C33" s="3">
         <v>3</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -14110,16 +14091,16 @@
     </row>
     <row r="34" spans="1:7" ht="15.6">
       <c r="A34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="C34" s="3">
         <v>3</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -14133,16 +14114,16 @@
     </row>
     <row r="35" spans="1:7" ht="15.6">
       <c r="A35" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="C35" s="3">
         <v>2</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -14156,10 +14137,10 @@
     </row>
     <row r="36" spans="1:7" ht="15.6">
       <c r="A36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
@@ -14179,10 +14160,10 @@
     </row>
     <row r="37" spans="1:7" ht="15.6">
       <c r="A37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>95</v>
       </c>
       <c r="C37" s="3">
         <v>3</v>
@@ -14202,10 +14183,10 @@
     </row>
     <row r="38" spans="1:7" ht="15.6">
       <c r="A38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="C38" s="3">
         <v>3</v>
@@ -14225,10 +14206,10 @@
     </row>
     <row r="39" spans="1:7" ht="15.6">
       <c r="A39" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C39" s="3">
         <v>3</v>
@@ -14248,10 +14229,10 @@
     </row>
     <row r="40" spans="1:7" ht="15.6">
       <c r="A40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C40" s="3">
         <v>2</v>
@@ -14271,10 +14252,10 @@
     </row>
     <row r="41" spans="1:7" ht="15.6">
       <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="C41" s="3">
         <v>3</v>
@@ -14294,16 +14275,16 @@
     </row>
     <row r="42" spans="1:7" ht="15.6">
       <c r="A42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>104</v>
-      </c>
       <c r="C42" s="3">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -14317,16 +14298,16 @@
     </row>
     <row r="43" spans="1:7" ht="15.6">
       <c r="A43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="C43" s="3">
         <v>2</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -14340,16 +14321,16 @@
     </row>
     <row r="44" spans="1:7" ht="15.6">
       <c r="A44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>108</v>
-      </c>
       <c r="C44" s="3">
         <v>3</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -14363,16 +14344,16 @@
     </row>
     <row r="45" spans="1:7" ht="15.6">
       <c r="A45" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="C45" s="3">
         <v>3</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -14386,10 +14367,10 @@
     </row>
     <row r="46" spans="1:7" ht="15.6">
       <c r="A46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="C46" s="3">
         <v>2</v>
@@ -14409,10 +14390,10 @@
     </row>
     <row r="47" spans="1:7" ht="15.6">
       <c r="A47" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="C47" s="3">
         <v>3</v>
@@ -14432,10 +14413,10 @@
     </row>
     <row r="48" spans="1:7" ht="15.6">
       <c r="A48" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="C48" s="3">
         <v>2</v>
@@ -14455,10 +14436,10 @@
     </row>
     <row r="49" spans="1:7" ht="15.6">
       <c r="A49" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="C49" s="3">
         <v>3</v>
@@ -14478,10 +14459,10 @@
     </row>
     <row r="50" spans="1:7" ht="15.6">
       <c r="A50" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="C50" s="3">
         <v>3</v>
@@ -14501,10 +14482,10 @@
     </row>
     <row r="51" spans="1:7" ht="15.6">
       <c r="A51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>122</v>
       </c>
       <c r="C51" s="3">
         <v>3</v>
@@ -14524,16 +14505,16 @@
     </row>
     <row r="52" spans="1:7" ht="15.6">
       <c r="A52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="C52" s="3">
         <v>3</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -14547,16 +14528,16 @@
     </row>
     <row r="53" spans="1:7" ht="15.6">
       <c r="A53" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>126</v>
-      </c>
       <c r="C53" s="3">
         <v>3</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -14570,16 +14551,16 @@
     </row>
     <row r="54" spans="1:7" ht="15.6">
       <c r="A54" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>128</v>
-      </c>
       <c r="C54" s="3">
         <v>2</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -14593,16 +14574,16 @@
     </row>
     <row r="55" spans="1:7" ht="15.6">
       <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="C55" s="3">
         <v>3</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -14616,16 +14597,16 @@
     </row>
     <row r="56" spans="1:7" ht="15.6">
       <c r="A56" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>132</v>
-      </c>
       <c r="C56" s="3">
         <v>3</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -14639,10 +14620,10 @@
     </row>
     <row r="57" spans="1:7" ht="15.6">
       <c r="A57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="C57" s="3">
         <v>2</v>
@@ -14662,16 +14643,16 @@
     </row>
     <row r="58" spans="1:7" ht="15.6">
       <c r="A58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>136</v>
-      </c>
       <c r="C58" s="3">
         <v>3</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -14685,16 +14666,16 @@
     </row>
     <row r="59" spans="1:7" ht="15.6">
       <c r="A59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="C59" s="3">
         <v>2</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -14708,16 +14689,16 @@
     </row>
     <row r="60" spans="1:7" ht="15.6">
       <c r="A60" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>140</v>
-      </c>
       <c r="C60" s="3">
         <v>2</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -14731,16 +14712,16 @@
     </row>
     <row r="61" spans="1:7" ht="15.6">
       <c r="A61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>142</v>
-      </c>
       <c r="C61" s="3">
         <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -14754,16 +14735,16 @@
     </row>
     <row r="62" spans="1:7" ht="15.6">
       <c r="A62" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>144</v>
-      </c>
       <c r="C62" s="3">
         <v>2</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -14777,16 +14758,16 @@
     </row>
     <row r="63" spans="1:7" ht="15.6">
       <c r="A63" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>146</v>
-      </c>
       <c r="C63" s="3">
         <v>2</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -14800,16 +14781,16 @@
     </row>
     <row r="64" spans="1:7" ht="15.6">
       <c r="A64" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>148</v>
-      </c>
       <c r="C64" s="3">
         <v>2</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -14823,10 +14804,10 @@
     </row>
     <row r="65" spans="1:10" ht="15.6">
       <c r="A65" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>149</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>150</v>
       </c>
       <c r="C65" s="3">
         <v>2</v>
@@ -14846,16 +14827,16 @@
     </row>
     <row r="66" spans="1:10" ht="15.6">
       <c r="A66" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C66" s="3">
         <v>2</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -14869,16 +14850,16 @@
     </row>
     <row r="67" spans="1:10" ht="15.6">
       <c r="A67" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="C67" s="3">
         <v>2</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -14892,16 +14873,16 @@
     </row>
     <row r="68" spans="1:10" ht="15.6">
       <c r="A68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="C68" s="3">
         <v>2</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -14915,16 +14896,16 @@
     </row>
     <row r="69" spans="1:10" ht="15.6">
       <c r="A69" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C69" s="3">
         <v>3</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -14938,16 +14919,16 @@
     </row>
     <row r="70" spans="1:10" ht="15.6">
       <c r="A70" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="C70" s="3">
         <v>3</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -14961,16 +14942,16 @@
     </row>
     <row r="71" spans="1:10" ht="15.6">
       <c r="A71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="C71" s="3">
         <v>3</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -14984,16 +14965,16 @@
     </row>
     <row r="72" spans="1:10" ht="15.6">
       <c r="A72" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="C72" s="3">
         <v>3</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -15007,10 +14988,10 @@
     </row>
     <row r="73" spans="1:10" ht="15.6">
       <c r="A73" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>166</v>
       </c>
       <c r="C73" s="3">
         <v>3</v>
@@ -15031,7 +15012,7 @@
     </row>
     <row r="74" spans="1:10" ht="15.6">
       <c r="A74" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>47</v>
@@ -15055,7 +15036,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.6">
       <c r="A75" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>48</v>
@@ -15079,7 +15060,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.6">
       <c r="A76" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>49</v>
@@ -15103,10 +15084,10 @@
     </row>
     <row r="77" spans="1:10" ht="15.6">
       <c r="A77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="B77" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="C77" s="3">
         <v>2</v>
@@ -15127,10 +15108,10 @@
     </row>
     <row r="78" spans="1:10" ht="15.6">
       <c r="A78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>173</v>
       </c>
       <c r="C78" s="3">
         <v>2</v>
@@ -15151,10 +15132,10 @@
     </row>
     <row r="79" spans="1:10" ht="15.6">
       <c r="A79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="C79" s="3">
         <v>3</v>
@@ -15175,7 +15156,7 @@
     </row>
     <row r="80" spans="1:10" ht="15.6">
       <c r="A80" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>52</v>
@@ -15199,7 +15180,7 @@
     </row>
     <row r="81" spans="1:10" ht="15.6">
       <c r="A81" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>53</v>
@@ -15223,7 +15204,7 @@
     </row>
     <row r="82" spans="1:10" ht="15.6">
       <c r="A82" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>54</v>
@@ -15247,7 +15228,7 @@
     </row>
     <row r="83" spans="1:10" ht="15.6">
       <c r="A83" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B83" s="10" t="s">
         <v>55</v>
@@ -15271,10 +15252,10 @@
     </row>
     <row r="84" spans="1:10" ht="15.6">
       <c r="A84" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C84" s="3">
         <v>2</v>
@@ -15295,10 +15276,10 @@
     </row>
     <row r="85" spans="1:10" ht="15.6">
       <c r="A85" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="C85" s="3">
         <v>3</v>
@@ -15319,10 +15300,10 @@
     </row>
     <row r="86" spans="1:10" ht="15.6">
       <c r="A86" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" s="3">
         <v>3</v>
@@ -15343,10 +15324,10 @@
     </row>
     <row r="87" spans="1:10" ht="15.6">
       <c r="A87" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C87" s="3">
         <v>3</v>
@@ -15367,10 +15348,10 @@
     </row>
     <row r="88" spans="1:10" ht="15.6">
       <c r="A88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>185</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C88" s="3">
         <v>2</v>
@@ -15391,10 +15372,10 @@
     </row>
     <row r="89" spans="1:10" ht="15.6">
       <c r="A89" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" s="3">
         <v>2</v>
@@ -15415,10 +15396,10 @@
     </row>
     <row r="90" spans="1:10" ht="15.6">
       <c r="A90" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C90" s="3">
         <v>3</v>
@@ -15439,10 +15420,10 @@
     </row>
     <row r="91" spans="1:10" ht="15.6">
       <c r="A91" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="C91" s="3">
         <v>2</v>
@@ -15463,10 +15444,10 @@
     </row>
     <row r="92" spans="1:10" ht="15.6">
       <c r="A92" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C92" s="3">
         <v>2</v>
@@ -15487,10 +15468,10 @@
     </row>
     <row r="93" spans="1:10" ht="15.6">
       <c r="A93" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C93" s="3">
         <v>2</v>
@@ -15511,10 +15492,10 @@
     </row>
     <row r="94" spans="1:10" ht="15.6">
       <c r="A94" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>193</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>194</v>
       </c>
       <c r="C94" s="3">
         <v>3</v>
@@ -15535,10 +15516,10 @@
     </row>
     <row r="95" spans="1:10" ht="15.6">
       <c r="A95" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="B95" s="9" t="s">
-        <v>196</v>
       </c>
       <c r="C95" s="3">
         <v>2</v>
@@ -15559,10 +15540,10 @@
     </row>
     <row r="96" spans="1:10" ht="15.6">
       <c r="A96" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>197</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>198</v>
       </c>
       <c r="C96" s="3">
         <v>2</v>
@@ -15583,10 +15564,10 @@
     </row>
     <row r="97" spans="1:10" ht="15.6">
       <c r="A97" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C97" s="3">
         <v>3</v>
@@ -15607,10 +15588,10 @@
     </row>
     <row r="98" spans="1:10" ht="15.6">
       <c r="A98" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>200</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="C98" s="3">
         <v>3</v>
@@ -15631,10 +15612,10 @@
     </row>
     <row r="99" spans="1:10" ht="15.6">
       <c r="A99" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C99" s="3">
         <v>3</v>
@@ -15655,10 +15636,10 @@
     </row>
     <row r="100" spans="1:10" ht="15.6">
       <c r="A100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>203</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>204</v>
       </c>
       <c r="C100" s="3">
         <v>3</v>
@@ -15679,10 +15660,10 @@
     </row>
     <row r="101" spans="1:10" ht="15.6">
       <c r="A101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="B101" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="C101" s="3">
         <v>2</v>
@@ -15703,7 +15684,7 @@
     </row>
     <row r="102" spans="1:10" ht="15.6">
       <c r="A102" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B102" s="10" t="s">
         <v>57</v>
@@ -15727,10 +15708,10 @@
     </row>
     <row r="103" spans="1:10" ht="15.6">
       <c r="A103" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C103" s="3">
         <v>3</v>
@@ -15751,10 +15732,10 @@
     </row>
     <row r="104" spans="1:10" ht="15.6">
       <c r="A104" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="C104" s="3">
         <v>2</v>
@@ -15775,10 +15756,10 @@
     </row>
     <row r="105" spans="1:10" ht="15.6">
       <c r="A105" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C105" s="3">
         <v>2</v>
@@ -15799,10 +15780,10 @@
     </row>
     <row r="106" spans="1:10" ht="15.6">
       <c r="A106" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C106" s="3">
         <v>3</v>
@@ -15823,10 +15804,10 @@
     </row>
     <row r="107" spans="1:10" ht="15.6">
       <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="C107" s="3">
         <v>3</v>
@@ -15847,10 +15828,10 @@
     </row>
     <row r="108" spans="1:10" ht="15.6">
       <c r="A108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>215</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="C108" s="3">
         <v>3</v>
@@ -15871,10 +15852,10 @@
     </row>
     <row r="109" spans="1:10" ht="15.6">
       <c r="A109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>217</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>218</v>
       </c>
       <c r="C109" s="3">
         <v>3</v>
@@ -15895,10 +15876,10 @@
     </row>
     <row r="110" spans="1:10" ht="15.6">
       <c r="A110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="C110" s="3">
         <v>3</v>
@@ -15919,10 +15900,10 @@
     </row>
     <row r="111" spans="1:10" ht="15.6">
       <c r="A111" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="C111" s="3">
         <v>2</v>
@@ -15943,10 +15924,10 @@
     </row>
     <row r="112" spans="1:10" ht="15.6">
       <c r="A112" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>224</v>
       </c>
       <c r="C112" s="3">
         <v>3</v>
@@ -15967,10 +15948,10 @@
     </row>
     <row r="113" spans="1:10" ht="15.6">
       <c r="A113" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="3">
         <v>3</v>
@@ -15991,10 +15972,10 @@
     </row>
     <row r="114" spans="1:10" ht="15.6">
       <c r="A114" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C114" s="3">
         <v>2</v>
@@ -16015,10 +15996,10 @@
     </row>
     <row r="115" spans="1:10" ht="15.6">
       <c r="A115" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="C115" s="3">
         <v>2</v>
@@ -16039,10 +16020,10 @@
     </row>
     <row r="116" spans="1:10" ht="15.6">
       <c r="A116" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>230</v>
       </c>
       <c r="C116" s="3">
         <v>2</v>
@@ -16079,22 +16060,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -16107,8 +16088,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B186"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -16118,10 +16099,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -17612,10 +17593,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8258DD1C-5C89-4BF3-859D-C9EDC0429FAF}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -17625,30 +17606,30 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" t="s">
         <v>238</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>239</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>240</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>241</v>
-      </c>
-      <c r="E1" t="s">
-        <v>242</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
       <c r="A2" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="11">
         <v>40</v>
@@ -17666,12 +17647,12 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
       <c r="A3" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B3" s="11">
         <v>40</v>
@@ -17689,15 +17670,15 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15">
       <c r="A4" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B4" s="11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C4" s="14" t="b">
         <v>0</v>
@@ -17712,15 +17693,15 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15">
       <c r="A5" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B5" s="11">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C5" s="14" t="b">
         <v>0</v>
@@ -17735,12 +17716,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15">
       <c r="A6" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B6" s="11">
         <v>25</v>
@@ -17758,12 +17739,12 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15">
       <c r="A7" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B7" s="11">
         <v>25</v>
@@ -17781,12 +17762,12 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15">
       <c r="A8" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B8" s="11">
         <v>25</v>
@@ -17804,15 +17785,15 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15">
       <c r="A9" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B9" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" s="14" t="b">
         <v>1</v>
@@ -17827,15 +17808,15 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15">
       <c r="A10" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="14" t="b">
         <v>1</v>
@@ -17850,15 +17831,15 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15">
       <c r="A11" s="11" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B11" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C11" s="14" t="b">
         <v>0</v>
@@ -17873,15 +17854,15 @@
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15">
       <c r="A12" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B12" s="11">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C12" s="14" t="b">
         <v>0</v>
@@ -17896,12 +17877,12 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15">
       <c r="A13" s="11" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B13" s="11">
         <v>200</v>
@@ -17919,12 +17900,12 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15">
       <c r="A14" s="11" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B14" s="11">
         <v>200</v>
@@ -17942,192 +17923,57 @@
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="B15" s="11">
-        <v>200</v>
-      </c>
-      <c r="C15" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>373</v>
-      </c>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:7" ht="15">
-      <c r="A16" s="11" t="s">
-        <v>359</v>
-      </c>
-      <c r="B16" s="11">
-        <v>200</v>
-      </c>
-      <c r="C16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15">
-      <c r="A17" s="11" t="s">
-        <v>360</v>
-      </c>
-      <c r="B17" s="11">
-        <v>200</v>
-      </c>
-      <c r="C17" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D17" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15">
-      <c r="A18" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="B18" s="11">
-        <v>200</v>
-      </c>
-      <c r="C18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="B19" s="11">
-        <v>200</v>
-      </c>
-      <c r="C19" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D19" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15">
-      <c r="A20" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" s="11">
-        <v>200</v>
-      </c>
-      <c r="C20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="B21" s="11">
-        <v>200</v>
-      </c>
-      <c r="C21" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D21" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E21" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="B22" s="11">
-        <v>200</v>
-      </c>
-      <c r="C22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="D22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="E22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>373</v>
-      </c>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>
@@ -18149,7 +17995,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -18190,8 +18036,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18203,13 +18049,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" t="s">
         <v>259</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>260</v>
-      </c>
-      <c r="C1" t="s">
-        <v>261</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -18217,10 +18063,10 @@
     </row>
     <row r="2" spans="1:4" ht="15">
       <c r="A2" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>262</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>263</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -18228,10 +18074,10 @@
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>265</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -18239,10 +18085,10 @@
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>267</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -18250,10 +18096,10 @@
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -18261,10 +18107,10 @@
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -18272,10 +18118,10 @@
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>272</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>273</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -18283,10 +18129,10 @@
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>274</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>275</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -18294,10 +18140,10 @@
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>276</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>277</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -18305,10 +18151,10 @@
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>279</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -18316,10 +18162,10 @@
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>281</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -18327,10 +18173,10 @@
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>282</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>283</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -18338,10 +18184,10 @@
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="11" t="s">
         <v>284</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>285</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -18349,10 +18195,10 @@
     </row>
     <row r="14" spans="1:4" ht="15">
       <c r="A14" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>286</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>287</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -18360,10 +18206,10 @@
     </row>
     <row r="15" spans="1:4" ht="15">
       <c r="A15" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>288</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>289</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -18371,10 +18217,10 @@
     </row>
     <row r="16" spans="1:4" ht="15">
       <c r="A16" s="11" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="11" t="s">
         <v>290</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>291</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -18382,10 +18228,10 @@
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>292</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>293</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -18393,7 +18239,7 @@
     </row>
     <row r="18" spans="1:4" ht="15">
       <c r="A18" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B18" s="11"/>
       <c r="D18">
@@ -18402,7 +18248,7 @@
     </row>
     <row r="19" spans="1:4" ht="15">
       <c r="A19" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B19" s="11"/>
       <c r="D19">
@@ -18411,10 +18257,10 @@
     </row>
     <row r="20" spans="1:4" ht="15">
       <c r="A20" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>296</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>297</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -18422,10 +18268,10 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="A21" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>298</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>299</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -18433,10 +18279,10 @@
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>300</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>301</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -18444,10 +18290,10 @@
     </row>
     <row r="23" spans="1:4" ht="15">
       <c r="A23" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>302</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>303</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -18455,108 +18301,108 @@
     </row>
     <row r="24" spans="1:4" ht="15">
       <c r="A24" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="11" t="s">
         <v>304</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15">
       <c r="A25" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>306</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>308</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15">
       <c r="A27" s="11" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:4" ht="15">
       <c r="A28" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:4" ht="15">
       <c r="A29" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B29" s="11"/>
     </row>
     <row r="30" spans="1:4" ht="15">
       <c r="A30" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15">
       <c r="A31" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>315</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15">
       <c r="A32" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="B32" s="11" t="s">
         <v>317</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15">
       <c r="A33" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>319</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15">
       <c r="A34" s="11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B34" s="11"/>
     </row>
     <row r="35" spans="1:2" ht="15">
       <c r="A35" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B35" s="11"/>
     </row>
     <row r="36" spans="1:2" ht="15">
       <c r="A36" s="11" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15">
       <c r="A37" s="11" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15">
       <c r="A38" s="11" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15">
       <c r="A39" s="11" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>

--- a/public/database/DATA.xlsx
+++ b/public/database/DATA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Project\timetable-schedule\public\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SKRIPSI\Project\scheduler-web\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F4AD7A-8661-4C76-8DC5-A882F2484E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A0E579-D448-4F6B-9016-B34DF699563D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" activeTab="6" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="950" firstSheet="3" activeTab="11" xr2:uid="{A45E902C-B954-4836-9532-7B18EBE736F7}"/>
   </bookViews>
   <sheets>
     <sheet name="studyProgram" sheetId="2" r:id="rId1"/>
@@ -8684,8 +8684,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E471"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8718,7 +8718,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8726,7 +8726,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -17595,7 +17595,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
